--- a/Brothers_AMS/TemplateFiles/UploadEmployeeSchedule.xlsx
+++ b/Brothers_AMS/TemplateFiles/UploadEmployeeSchedule.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instruction" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,19 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>EmployeeNumber</t>
   </si>
   <si>
     <t>ScheduleName</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+  </si>
+  <si>
+    <t>BIPH2014-00725</t>
+  </si>
+  <si>
+    <t>Day Shift 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please Choose from the Schedule Name from the Schedule Module in Master Module 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We suggest to use copy paste method</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +82,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -102,6 +154,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +446,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
